--- a/biology/Zoologie/Eleutherodactylus_weinlandi/Eleutherodactylus_weinlandi.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_weinlandi/Eleutherodactylus_weinlandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus weinlandi est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus weinlandi est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1]. Elle se rencontre en République dominicaine et dans l'Est d'Haïti du niveau de la mer jusqu'à 788 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola. Elle se rencontre en République dominicaine et dans l'Est d'Haïti du niveau de la mer jusqu'à 788 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eleutherodactylus weinlandi weinlandi Barbour, 1914
 Eleutherodactylus weinlandi chersonesodes Schwartz, 1965</t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste David Friedrich Weinland[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste David Friedrich Weinland.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Barbour, 1914 : A contribution to the zoogeography of the West Indies, with special reference to amphibians and reptiles. Memoirs of the Museum of Comparative Zoölogy at Harvard College, vol. 44, no 2, p. 204-259 (texte intégral).
 (en) Schwartz, 1965 : Geographic variation in two species of Hispaniolan Eleutherodactylus with notes on Cuban members of the ricordi group. Studies on the Fauna of Curacao and Other Caribbean Islands, vol. 22, p. 98-123.</t>
